--- a/KatalonData/ABPTestData/SchedulePaymentABP_SCF.xlsx
+++ b/KatalonData/ABPTestData/SchedulePaymentABP_SCF.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{7E933E5F-DA67-4599-9DA6-F2588EE9B8B7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81E906-390B-435B-9CAD-862F9B06E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CVCSPSCFCorp_IPDailyNOP" r:id="rId1" sheetId="1"/>
-    <sheet name="CVCSPSCFCorp_AutomaticPayment" r:id="rId2" sheetId="2"/>
-    <sheet name="CVCSPSCFPC_AutomaticPayment" r:id="rId3" sheetId="4"/>
-    <sheet name="CVCSPSCFPS_AutomaticPayment" r:id="rId4" sheetId="3"/>
-    <sheet name="CVCSPSCFCC_AutomaticPayment" r:id="rId5" sheetId="5"/>
-    <sheet name="CVCSPSCFPS_RecDeferred" r:id="rId6" sheetId="6"/>
-    <sheet name="CVCSPSCFPC_RecDeferred" r:id="rId7" sheetId="7"/>
-    <sheet name="CVCSPSCFCorp_RecDeferred" r:id="rId8" sheetId="8"/>
-    <sheet name="CVCSPSCFCC_RecDeferred" r:id="rId9" sheetId="9"/>
-    <sheet name="CVCSPSCFPS_RecDaily" r:id="rId10" sheetId="10"/>
-    <sheet name="CVCSPSCFPC_RecDaily" r:id="rId11" sheetId="11"/>
-    <sheet name="CVCSPSCFCorp_RecDaily" r:id="rId12" sheetId="12"/>
-    <sheet name="CVCSPSCFCC_RecDaily" r:id="rId13" sheetId="13"/>
-    <sheet name="CVCSPSCFPS_IPDeferred" r:id="rId14" sheetId="14"/>
-    <sheet name="CVCSPSCFPC_IPDeferred" r:id="rId15" sheetId="15"/>
-    <sheet name="CVCSPSCFCC_IPDeferred" r:id="rId16" sheetId="16"/>
-    <sheet name="CVCSPSCFCorp_IPDeferred" r:id="rId17" sheetId="17"/>
-    <sheet name="CVCSPSCFPS_IPDailyIA" r:id="rId18" sheetId="18"/>
-    <sheet name="CVCSPSCFPC_IPDailyIA" r:id="rId19" sheetId="19"/>
-    <sheet name="CVCSPSCFCC_IPDailyIA" r:id="rId20" sheetId="20"/>
-    <sheet name="CVCSPSCFCorp_IPDailyIA" r:id="rId21" sheetId="21"/>
-    <sheet name="CVCSPSCFCC_IPDailyNOP" r:id="rId22" sheetId="22"/>
-    <sheet name="CVCSPSCFPC_IPDailyNOP" r:id="rId23" sheetId="23"/>
-    <sheet name="CVCSPSCFPS_IPDailyNOP" r:id="rId24" sheetId="24"/>
+    <sheet name="CVCSPSCFCorp_IPDailyNOP" sheetId="1" r:id="rId1"/>
+    <sheet name="CVCSPSCFCorp_AutomaticPayment" sheetId="2" r:id="rId2"/>
+    <sheet name="CVCSPSCFPC_AutomaticPayment" sheetId="4" r:id="rId3"/>
+    <sheet name="CVCSPSCFPS_AutomaticPayment" sheetId="3" r:id="rId4"/>
+    <sheet name="CVCSPSCFCC_AutomaticPayment" sheetId="5" r:id="rId5"/>
+    <sheet name="CVCSPSCFPS_RecDeferred" sheetId="6" r:id="rId6"/>
+    <sheet name="CVCSPSCFPC_RecDeferred" sheetId="7" r:id="rId7"/>
+    <sheet name="CVCSPSCFCorp_RecDeferred" sheetId="8" r:id="rId8"/>
+    <sheet name="CVCSPSCFCC_RecDeferred" sheetId="9" r:id="rId9"/>
+    <sheet name="CVCSPSCFPS_RecDaily" sheetId="10" r:id="rId10"/>
+    <sheet name="CVCSPSCFPC_RecDaily" sheetId="11" r:id="rId11"/>
+    <sheet name="CVCSPSCFCorp_RecDaily" sheetId="12" r:id="rId12"/>
+    <sheet name="CVCSPSCFCC_RecDaily" sheetId="13" r:id="rId13"/>
+    <sheet name="CVCSPSCFPS_IPDeferred" sheetId="14" r:id="rId14"/>
+    <sheet name="CVCSPSCFPC_IPDeferred" sheetId="15" r:id="rId15"/>
+    <sheet name="CVCSPSCFCC_IPDeferred" sheetId="16" r:id="rId16"/>
+    <sheet name="CVCSPSCFCorp_IPDeferred" sheetId="17" r:id="rId17"/>
+    <sheet name="CVCSPSCFPS_IPDailyIA" sheetId="18" r:id="rId18"/>
+    <sheet name="CVCSPSCFPC_IPDailyIA" sheetId="19" r:id="rId19"/>
+    <sheet name="CVCSPSCFCC_IPDailyIA" sheetId="20" r:id="rId20"/>
+    <sheet name="CVCSPSCFCorp_IPDailyIA" sheetId="21" r:id="rId21"/>
+    <sheet name="CVCSPSCFCC_IPDailyNOP" sheetId="22" r:id="rId22"/>
+    <sheet name="CVCSPSCFPC_IPDailyNOP" sheetId="23" r:id="rId23"/>
+    <sheet name="CVCSPSCFPS_IPDailyNOP" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="69">
   <si>
     <t>Result</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 19:17:40 IST 2025</t>
   </si>
   <si>
     <t>Y</t>
@@ -694,12 +691,6 @@
   </si>
   <si>
     <t>Wed Sep 17 20:35:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 21:06:13 IST 2025</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Wed Sep 17 21:09:33 IST 2025</t>
@@ -780,46 +771,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -836,10 +827,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -874,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -909,7 +900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1003,21 +994,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1034,7 +1025,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1086,26 +1077,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="30.26953125" collapsed="true"/>
+    <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="11" max="11" width="30.26953125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,42 +1147,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Smith"</f>
         <v>Smith</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1224,7 +1216,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1232,13 +1224,13 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1246,8 +1238,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B5A2A1-86A0-48D6-8551-F95C124FFD93}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B5A2A1-86A0-48D6-8551-F95C124FFD93}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -1255,10 +1247,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="11" max="11" width="26.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,42 +1300,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"CarlosJacinta"</f>
         <v>CarlosJacinta</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1375,7 +1367,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/18/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1383,19 +1375,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12333DF-E1A4-40DF-9EB9-E0927AF8848C}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12333DF-E1A4-40DF-9EB9-E0927AF8848C}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1403,10 +1395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="25.7265625" collapsed="true"/>
+    <col min="11" max="11" width="25.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,42 +1448,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1523,7 +1515,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/18/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1531,19 +1523,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E13466-8780-4BE7-977B-AE4E7A3ED92C}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E13466-8780-4BE7-977B-AE4E7A3ED92C}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1551,10 +1543,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="30.7265625" collapsed="true"/>
+    <col min="11" max="11" width="30.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,42 +1596,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Smith"</f>
         <v>Smith</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1673,7 +1665,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/18/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1681,19 +1673,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4BB029-1171-41FA-A648-8FA4436E795E}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4BB029-1171-41FA-A648-8FA4436E795E}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1701,10 +1693,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="34.7265625" collapsed="true"/>
+    <col min="11" max="11" width="34.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,42 +1746,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Bridges"</f>
         <v>Bridges</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1820,7 +1812,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/18/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1828,19 +1820,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972198C4-EADB-4F49-BACE-22D2E17BA962}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972198C4-EADB-4F49-BACE-22D2E17BA962}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1848,12 +1840,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="24.7265625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.7265625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="11" max="11" width="24.7265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7265625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="29" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1903,42 +1895,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"CarlosJacinta"</f>
         <v>CarlosJacinta</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1970,7 +1962,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1978,19 +1970,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A72D8C-277B-4875-8E77-2139760B0ECA}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A72D8C-277B-4875-8E77-2139760B0ECA}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1998,10 +1990,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="24.26953125" collapsed="true"/>
+    <col min="11" max="11" width="24.26953125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,42 +2043,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2118,7 +2110,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2126,19 +2118,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EC6F33-051D-49DA-A956-296219E0BF32}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EC6F33-051D-49DA-A956-296219E0BF32}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2146,10 +2138,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="23.7265625" collapsed="true"/>
+    <col min="11" max="11" width="23.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2199,42 +2191,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Bridges"</f>
         <v>Bridges</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2265,7 +2257,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2273,19 +2265,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66606A84-4AB3-491D-9D66-F6130A959AD3}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66606A84-4AB3-491D-9D66-F6130A959AD3}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -2293,10 +2285,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="11" max="11" width="25.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2346,42 +2338,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Smith"</f>
         <v>Smith</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2415,7 +2407,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2423,19 +2415,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052F609E-8671-42DF-A52E-E0D9BD0CD203}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052F609E-8671-42DF-A52E-E0D9BD0CD203}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2443,10 +2435,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,42 +2488,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"CarlosJacinta"</f>
         <v>CarlosJacinta</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2563,7 +2555,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2571,19 +2563,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3600924-F2FB-45A8-BED7-C929CC9ED1B0}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3600924-F2FB-45A8-BED7-C929CC9ED1B0}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2591,10 +2583,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="23.08984375" collapsed="true"/>
+    <col min="11" max="11" width="23.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2644,42 +2636,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2711,7 +2703,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2719,19 +2711,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE468B6-189E-4673-8A1F-0ED1617BC5B6}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE468B6-189E-4673-8A1F-0ED1617BC5B6}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2739,10 +2731,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="21.90625" collapsed="true"/>
+    <col min="11" max="11" width="21.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,42 +2784,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Smith"</f>
         <v>Smith</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2846,13 +2838,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1882DF2-9DD6-4023-94DD-D03DA9278EDA}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1882DF2-9DD6-4023-94DD-D03DA9278EDA}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2860,10 +2852,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="11" max="11" width="21.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2913,42 +2905,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Bridges"</f>
         <v>Bridges</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2979,7 +2971,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2987,19 +2979,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE1098-DCCB-4F87-87C7-D2AB1CA20D07}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE1098-DCCB-4F87-87C7-D2AB1CA20D07}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3007,10 +2999,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="11" max="11" width="20.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3060,42 +3052,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Smith"</f>
         <v>Smith</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3129,7 +3121,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3137,19 +3129,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAC6D03-D5E5-4638-94D0-65ECE68C7A9E}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAC6D03-D5E5-4638-94D0-65ECE68C7A9E}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3157,10 +3149,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="27.08984375" collapsed="true"/>
+    <col min="11" max="11" width="27.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3210,42 +3202,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Bridges"</f>
         <v>Bridges</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3276,7 +3268,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3284,19 +3276,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E6D05-9B7E-4C82-8712-7C58E6433EF7}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E6D05-9B7E-4C82-8712-7C58E6433EF7}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3304,10 +3296,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="11" max="11" width="29" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,42 +3349,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3424,7 +3416,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3432,19 +3424,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC360F-0C63-4638-A4B3-246CDDD4C83D}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC360F-0C63-4638-A4B3-246CDDD4C83D}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3452,10 +3444,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="11" max="11" width="29.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3505,42 +3497,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"CarlosJacinta"</f>
         <v>CarlosJacinta</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3572,7 +3564,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3580,19 +3572,385 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1E8BE-D33F-4968-8266-BE3EF6209F01}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1E8BE-D33F-4968-8266-BE3EF6209F01}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6328125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Carlos"</f>
+        <v>Carlos</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>09/19/2025</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10" t="str">
+        <f>"Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:"</f>
+        <v>Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBDAF58-F67E-4B6A-98CB-1AEB684984F2}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="19.6328125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"CarlosJacinta"</f>
+        <v>CarlosJacinta</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>09/19/2025</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10" t="str">
+        <f>"Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:"</f>
+        <v>Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146453A-566F-4243-8B47-2F88A434AC05}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="30.54296875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Bridges"</f>
+        <v>Bridges</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>09/19/2025</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10" t="str">
+        <f>"Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:"</f>
+        <v>Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD627C4-0639-4F31-B018-C711C491A530}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3600,10 +3958,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="22.6328125" collapsed="true"/>
+    <col min="11" max="11" width="17.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,405 +4011,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"Smith"</f>
-        <v>Smith</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="6" t="str">
-        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
-      </c>
-      <c r="M2" s="7">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10" t="str">
-        <f>"Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:"</f>
-        <v>Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBDAF58-F67E-4B6A-98CB-1AEB684984F2}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="11" max="11" customWidth="true" width="19.6328125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"CarlosJacinta"</f>
         <v>CarlosJacinta</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
-      </c>
-      <c r="M2" s="7">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10" t="str">
-        <f>"Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:"</f>
-        <v>Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146453A-566F-4243-8B47-2F88A434AC05}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="11" max="11" customWidth="true" width="30.54296875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"Bridges"</f>
-        <v>Bridges</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="6" t="str">
-        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
-      </c>
-      <c r="M2" s="7">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10" t="str">
-        <f>"Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:"</f>
-        <v>Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD627C4-0639-4F31-B018-C711C491A530}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="11" max="11" customWidth="true" width="17.90625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"CarlosJacinta"</f>
-        <v>CarlosJacinta</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="6" t="str">
-        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4083,7 +4078,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4091,19 +4086,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CCCC01-8D91-4DD2-9F92-02AFB7FF39EF}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CCCC01-8D91-4DD2-9F92-02AFB7FF39EF}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -4111,10 +4106,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="23.81640625" collapsed="true"/>
+    <col min="11" max="11" width="23.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4164,42 +4159,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4231,7 +4226,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4239,19 +4234,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC15A6F-3592-43D9-BD24-8AE9729D36B7}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC15A6F-3592-43D9-BD24-8AE9729D36B7}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -4259,10 +4254,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="11" max="11" width="21.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4312,42 +4307,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Smith"</f>
         <v>Smith</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4381,7 +4376,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4389,19 +4384,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F2B77E-010E-4115-88A3-B1B1A5BAFCF1}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F2B77E-010E-4115-88A3-B1B1A5BAFCF1}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -4409,10 +4404,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="28.54296875" collapsed="true"/>
+    <col min="11" max="11" width="28.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4462,42 +4457,42 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="str">
         <f>"Bridges"</f>
         <v>Bridges</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/18/2025</v>
+        <v>09/19/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4528,7 +4523,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4536,12 +4531,12 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/18/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/ABPTestData/SchedulePaymentABP_SCF.xlsx
+++ b/KatalonData/ABPTestData/SchedulePaymentABP_SCF.xlsx
@@ -1,46 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81E906-390B-435B-9CAD-862F9B06E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8A2E9286-67FF-4070-BC89-5E6F676E5985}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="24" firstSheet="22" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="CVCSPSCFCorp_IPDailyNOP" sheetId="1" r:id="rId1"/>
-    <sheet name="CVCSPSCFCorp_AutomaticPayment" sheetId="2" r:id="rId2"/>
-    <sheet name="CVCSPSCFPC_AutomaticPayment" sheetId="4" r:id="rId3"/>
-    <sheet name="CVCSPSCFPS_AutomaticPayment" sheetId="3" r:id="rId4"/>
-    <sheet name="CVCSPSCFCC_AutomaticPayment" sheetId="5" r:id="rId5"/>
-    <sheet name="CVCSPSCFPS_RecDeferred" sheetId="6" r:id="rId6"/>
-    <sheet name="CVCSPSCFPC_RecDeferred" sheetId="7" r:id="rId7"/>
-    <sheet name="CVCSPSCFCorp_RecDeferred" sheetId="8" r:id="rId8"/>
-    <sheet name="CVCSPSCFCC_RecDeferred" sheetId="9" r:id="rId9"/>
-    <sheet name="CVCSPSCFPS_RecDaily" sheetId="10" r:id="rId10"/>
-    <sheet name="CVCSPSCFPC_RecDaily" sheetId="11" r:id="rId11"/>
-    <sheet name="CVCSPSCFCorp_RecDaily" sheetId="12" r:id="rId12"/>
-    <sheet name="CVCSPSCFCC_RecDaily" sheetId="13" r:id="rId13"/>
-    <sheet name="CVCSPSCFPS_IPDeferred" sheetId="14" r:id="rId14"/>
-    <sheet name="CVCSPSCFPC_IPDeferred" sheetId="15" r:id="rId15"/>
-    <sheet name="CVCSPSCFCC_IPDeferred" sheetId="16" r:id="rId16"/>
-    <sheet name="CVCSPSCFCorp_IPDeferred" sheetId="17" r:id="rId17"/>
-    <sheet name="CVCSPSCFPS_IPDailyIA" sheetId="18" r:id="rId18"/>
-    <sheet name="CVCSPSCFPC_IPDailyIA" sheetId="19" r:id="rId19"/>
-    <sheet name="CVCSPSCFCC_IPDailyIA" sheetId="20" r:id="rId20"/>
-    <sheet name="CVCSPSCFCorp_IPDailyIA" sheetId="21" r:id="rId21"/>
-    <sheet name="CVCSPSCFCC_IPDailyNOP" sheetId="22" r:id="rId22"/>
-    <sheet name="CVCSPSCFPC_IPDailyNOP" sheetId="23" r:id="rId23"/>
-    <sheet name="CVCSPSCFPS_IPDailyNOP" sheetId="24" r:id="rId24"/>
+    <sheet name="CVCSPSCFCorp_IPDailyNOP" r:id="rId1" sheetId="1"/>
+    <sheet name="CVCSPSCFCorp_AutomaticPayment" r:id="rId2" sheetId="2"/>
+    <sheet name="CVCSPSCFPC_AutomaticPayment" r:id="rId3" sheetId="4"/>
+    <sheet name="CVCSPSCFPS_AutomaticPayment" r:id="rId4" sheetId="3"/>
+    <sheet name="CVCSPSCFCC_AutomaticPayment" r:id="rId5" sheetId="5"/>
+    <sheet name="CVCSPSCFPS_RecDeferred" r:id="rId6" sheetId="6"/>
+    <sheet name="CVCSPSCFPC_RecDeferred" r:id="rId7" sheetId="7"/>
+    <sheet name="CVCSPSCFCorp_RecDeferred" r:id="rId8" sheetId="8"/>
+    <sheet name="CVCSPSCFCC_RecDeferred" r:id="rId9" sheetId="9"/>
+    <sheet name="CVCSPSCFPS_RecDaily" r:id="rId10" sheetId="10"/>
+    <sheet name="CVCSPSCFPC_RecDaily" r:id="rId11" sheetId="11"/>
+    <sheet name="CVCSPSCFCorp_RecDaily" r:id="rId12" sheetId="12"/>
+    <sheet name="CVCSPSCFCC_RecDaily" r:id="rId13" sheetId="13"/>
+    <sheet name="CVCSPSCFPS_IPDeferred" r:id="rId14" sheetId="14"/>
+    <sheet name="CVCSPSCFPC_IPDeferred" r:id="rId15" sheetId="15"/>
+    <sheet name="CVCSPSCFCC_IPDeferred" r:id="rId16" sheetId="16"/>
+    <sheet name="CVCSPSCFCorp_IPDeferred" r:id="rId17" sheetId="17"/>
+    <sheet name="CVCSPSCFPS_IPDailyIA" r:id="rId18" sheetId="18"/>
+    <sheet name="CVCSPSCFPC_IPDailyIA" r:id="rId19" sheetId="19"/>
+    <sheet name="CVCSPSCFCC_IPDailyIA" r:id="rId20" sheetId="20"/>
+    <sheet name="CVCSPSCFCorp_IPDailyIA" r:id="rId21" sheetId="21"/>
+    <sheet name="CVCSPSCFCC_IPDailyNOP" r:id="rId22" sheetId="22"/>
+    <sheet name="CVCSPSCFPC_IPDailyNOP" r:id="rId23" sheetId="23"/>
+    <sheet name="CVCSPSCFPS_IPDailyNOP" r:id="rId24" sheetId="24"/>
+    <sheet name="CVCSPSCFCorp_RecMonthly" r:id="rId25" sheetId="25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="74">
   <si>
     <t>Result</t>
   </si>
@@ -703,6 +704,45 @@
   </si>
   <si>
     <t>Wed Sep 17 21:16:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 18:58:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Scheduled Payment--View the Information,
+180RemittanceID: 917-152027,
+1. Review bill to pay,
+Bills Label,	Due Date,	Date Submitted,	Date Modified,	Amount Due,	Amount to Pay,
+ImtiazABPsingleCFBills,	 EST, 	
+UDF1:,	udf data 1,
+UDF2:,	udf data 2,
+UDF3:,	udf3,
+UDF4:,	udf data4,
+2. Payment Method,
+Company Name:,Terry Foundation,
+First Name:,	CAROLYN,
+Last Name:,	LINEBERGER,
+Business Tax ID:,999999999,
+Routing Number:,****4974,
+Account Number:,****8307,
+Billing Address:,7072 MAPLE GLEN DR,
+CATAWBA, North Carolina NC 28609,
+Country:,UNITED STATES,
+Account Type:,Business Checking,
+3. Payment Plan Information,
+Payment Plan Type:,	Recurring,
+Payment Plan Duration:,	Monthly,
+Payment Plan Start Date:,	
+4. Payment Plan,Monthly payments of $</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:01:49 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -771,46 +811,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -827,10 +867,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -865,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -900,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -994,21 +1034,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1025,7 +1065,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1077,15 +1117,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1093,11 +1133,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="23.6328125" customWidth="1"/>
-    <col min="11" max="11" width="30.26953125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="23.6328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1222,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1216,7 +1256,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1224,13 +1264,13 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1238,8 +1278,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B5A2A1-86A0-48D6-8551-F95C124FFD93}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B5A2A1-86A0-48D6-8551-F95C124FFD93}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -1247,10 +1287,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="26.08984375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="26.08984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1375,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1367,7 +1407,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1375,19 +1415,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12333DF-E1A4-40DF-9EB9-E0927AF8848C}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12333DF-E1A4-40DF-9EB9-E0927AF8848C}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1395,10 +1435,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="25.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="25.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +1523,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1515,7 +1555,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1523,19 +1563,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E13466-8780-4BE7-977B-AE4E7A3ED92C}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E13466-8780-4BE7-977B-AE4E7A3ED92C}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1543,10 +1583,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="30.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="30.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1671,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1665,7 +1705,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1673,19 +1713,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4BB029-1171-41FA-A648-8FA4436E795E}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4BB029-1171-41FA-A648-8FA4436E795E}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1693,10 +1733,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="34.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="34.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1821,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1812,7 +1852,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payments of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1820,19 +1860,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972198C4-EADB-4F49-BACE-22D2E17BA962}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972198C4-EADB-4F49-BACE-22D2E17BA962}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1840,12 +1880,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="24.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.7265625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="24.7265625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1970,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1962,7 +2002,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -1970,19 +2010,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A72D8C-277B-4875-8E77-2139760B0ECA}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A72D8C-277B-4875-8E77-2139760B0ECA}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1990,10 +2030,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="24.26953125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="24.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +2083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2078,7 +2118,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2110,7 +2150,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2118,19 +2158,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EC6F33-051D-49DA-A956-296219E0BF32}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EC6F33-051D-49DA-A956-296219E0BF32}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2138,10 +2178,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="23.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="23.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2226,7 +2266,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2257,7 +2297,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2265,19 +2305,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66606A84-4AB3-491D-9D66-F6130A959AD3}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66606A84-4AB3-491D-9D66-F6130A959AD3}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -2285,10 +2325,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="25.81640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="25.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2373,7 +2413,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2407,7 +2447,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2415,19 +2455,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052F609E-8671-42DF-A52E-E0D9BD0CD203}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052F609E-8671-42DF-A52E-E0D9BD0CD203}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2435,10 +2475,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2523,7 +2563,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2555,7 +2595,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2563,19 +2603,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3600924-F2FB-45A8-BED7-C929CC9ED1B0}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3600924-F2FB-45A8-BED7-C929CC9ED1B0}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2583,10 +2623,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="23.08984375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="23.08984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2671,7 +2711,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2703,7 +2743,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2711,19 +2751,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE468B6-189E-4673-8A1F-0ED1617BC5B6}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE468B6-189E-4673-8A1F-0ED1617BC5B6}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2731,10 +2771,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="21.90625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="21.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2859,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2838,13 +2878,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1882DF2-9DD6-4023-94DD-D03DA9278EDA}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1882DF2-9DD6-4023-94DD-D03DA9278EDA}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2852,10 +2892,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="21.81640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="21.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +2945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2940,7 +2980,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -2971,7 +3011,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -2979,19 +3019,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE1098-DCCB-4F87-87C7-D2AB1CA20D07}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE1098-DCCB-4F87-87C7-D2AB1CA20D07}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -2999,10 +3039,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="20.36328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="20.36328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +3092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3087,7 +3127,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3121,7 +3161,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3129,19 +3169,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAC6D03-D5E5-4638-94D0-65ECE68C7A9E}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAC6D03-D5E5-4638-94D0-65ECE68C7A9E}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3149,10 +3189,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="27.08984375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="27.08984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3277,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3268,7 +3308,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3276,19 +3316,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E6D05-9B7E-4C82-8712-7C58E6433EF7}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E6D05-9B7E-4C82-8712-7C58E6433EF7}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3296,10 +3336,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="29" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3384,7 +3424,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3416,7 +3456,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3424,19 +3464,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC360F-0C63-4638-A4B3-246CDDD4C83D}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC360F-0C63-4638-A4B3-246CDDD4C83D}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3444,10 +3484,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="29.90625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="29.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +3537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3532,7 +3572,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3564,7 +3604,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3572,143 +3612,169 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AAE7D8-8383-49E4-B847-6D1C69A1CC13}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" customWidth="true" width="27.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Smith"</f>
+        <v>Smith</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>10/16/2025</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9" t="str">
+        <f ca="1">K2&amp;TEXT(M2,"0.00")&amp;" starting on "&amp;L2&amp;","&amp;P2</f>
+        <v>Scheduled Payment--View the Information,
+180RemittanceID: 917-152027,
+1. Review bill to pay,
+Bills Label,	Due Date,	Date Submitted,	Date Modified,	Amount Due,	Amount to Pay,
+ImtiazABPsingleCFBills,	 EST, 	
+UDF1:,	udf data 1,
+UDF2:,	udf data 2,
+UDF3:,	udf3,
+UDF4:,	udf data4,
+2. Payment Method,
+Company Name:,Terry Foundation,
+First Name:,	CAROLYN,
+Last Name:,	LINEBERGER,
+Business Tax ID:,999999999,
+Routing Number:,****4974,
+Account Number:,****8307,
+Billing Address:,7072 MAPLE GLEN DR,
+CATAWBA, North Carolina NC 28609,
+Country:,UNITED STATES,
+Account Type:,Business Checking,
+3. Payment Plan Information,
+Payment Plan Type:,	Recurring,
+Payment Plan Duration:,	Monthly,
+Payment Plan Start Date:,	
+4. Payment Plan,Monthly payments of $10.00 starting on 10/16/2025,A Convenience Fee will be added to each transaction issued for Monthly payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:</v>
+      </c>
+      <c r="P2" s="10" t="str">
+        <f ca="1">"A Convenience Fee will be added to each transaction issued for Monthly payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:"</f>
+        <v>A Convenience Fee will be added to each transaction issued for Monthly payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1E8BE-D33F-4968-8266-BE3EF6209F01}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6328125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"Carlos"</f>
-        <v>Carlos</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="6" t="str">
-        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
-      </c>
-      <c r="M2" s="7">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10" t="str">
-        <f>"Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:"</f>
-        <v>Individual Convenience Fee Amount:,	
-Total Convenience Fees Paid:,	
-Total Paid under this plan:</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBDAF58-F67E-4B6A-98CB-1AEB684984F2}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1E8BE-D33F-4968-8266-BE3EF6209F01}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -3716,10 +3782,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="19.6328125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3769,12 +3838,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3787,8 +3856,8 @@
         <v>17</v>
       </c>
       <c r="G2" t="str">
-        <f>"CarlosJacinta"</f>
-        <v>CarlosJacinta</v>
+        <f>"Carlos"</f>
+        <v>Carlos</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -3800,11 +3869,11 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3823,13 +3892,134 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBDAF58-F67E-4B6A-98CB-1AEB684984F2}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" customWidth="true" width="19.6328125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"CarlosJacinta"</f>
+        <v>CarlosJacinta</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>10/16/2025</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10" t="str">
+        <f>"Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:"</f>
+        <v>Individual Convenience Fee Amount:,	
+Total Convenience Fees Paid:,	
+Total Paid under this plan:</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146453A-566F-4243-8B47-2F88A434AC05}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146453A-566F-4243-8B47-2F88A434AC05}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -3837,10 +4027,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="30.54296875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="30.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +4080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3925,7 +4115,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -3944,13 +4134,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD627C4-0639-4F31-B018-C711C491A530}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD627C4-0639-4F31-B018-C711C491A530}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -3958,10 +4148,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="17.90625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="17.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4011,7 +4201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4046,7 +4236,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4078,7 +4268,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4086,19 +4276,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CCCC01-8D91-4DD2-9F92-02AFB7FF39EF}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CCCC01-8D91-4DD2-9F92-02AFB7FF39EF}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -4106,10 +4296,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="23.81640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="23.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4194,7 +4384,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4226,7 +4416,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4234,19 +4424,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC15A6F-3592-43D9-BD24-8AE9729D36B7}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC15A6F-3592-43D9-BD24-8AE9729D36B7}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -4254,10 +4444,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="21.81640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="21.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +4497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4342,7 +4532,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4376,7 +4566,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4384,19 +4574,19 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F2B77E-010E-4115-88A3-B1B1A5BAFCF1}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F2B77E-010E-4115-88A3-B1B1A5BAFCF1}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -4404,10 +4594,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="28.54296875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="28.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
+    <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4492,7 +4682,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -4523,7 +4713,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/16/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4531,12 +4721,12 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 2.00 starting on 10/16/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/ABPTestData/SchedulePaymentABP_SCF.xlsx
+++ b/KatalonData/ABPTestData/SchedulePaymentABP_SCF.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="102">
   <si>
     <t>Result</t>
   </si>
@@ -743,6 +743,90 @@
   </si>
   <si>
     <t>Wed Oct 15 19:01:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 18:58:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:19:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:21:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:24:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:27:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:29:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:32:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:34:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:36:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:38:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:42:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:44:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 21:47:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:23:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:25:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:28:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:30:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:33:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:36:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:38:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:40:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:43:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:45:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:47:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:49:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:51:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 22:54:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 16:20:01 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1345,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1493,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1641,7 +1725,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1791,7 +1875,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -1940,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -2088,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -2236,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -2383,7 +2467,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -2533,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -2681,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -2829,7 +2913,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -2950,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3097,7 +3181,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3247,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3394,7 +3478,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3542,7 +3626,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3690,7 +3774,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3843,7 +3927,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -3964,7 +4048,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -4085,7 +4169,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -4206,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -4354,7 +4438,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -4502,7 +4586,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -4652,7 +4736,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
